--- a/Files/Vaccine_January 28, 2010.xlsx
+++ b/Files/Vaccine_January 28, 2010.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="221">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="636" uniqueCount="223">
   <si>
     <t xml:space="preserve">Vaccine</t>
   </si>
@@ -95,7 +95,7 @@
     <t xml:space="preserve">Kinrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose T-L syringes </t>
+    <t xml:space="preserve">10 pack - 1 dose vials </t>
   </si>
   <si>
     <t xml:space="preserve">$32.25</t>
@@ -104,6 +104,9 @@
     <t xml:space="preserve">$48.00</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose T-L syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">DTaP-Hep B-IPV </t>
   </si>
   <si>
@@ -131,6 +134,9 @@
     <t xml:space="preserve">$75.33</t>
   </si>
   <si>
+    <t xml:space="preserve">DTaP-Hib </t>
+  </si>
+  <si>
     <t xml:space="preserve">TriHIBit</t>
   </si>
   <si>
@@ -158,7 +164,7 @@
     <t xml:space="preserve">10-pack - 1 dose syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B </t>
+    <t xml:space="preserve">Hepatitis B-Hib </t>
   </si>
   <si>
     <t xml:space="preserve">COMVAX</t>
@@ -188,15 +194,15 @@
     <t xml:space="preserve">Havrix</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 10 pack - 1 dose T-L syringes. No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$12.75</t>
   </si>
   <si>
     <t xml:space="preserve">$28.74</t>
   </si>
   <si>
+    <t xml:space="preserve">10 pack - 1 dose T-L syringes. No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">Hepatitis A-Hepatitis B 18 only </t>
   </si>
   <si>
@@ -212,7 +218,7 @@
     <t xml:space="preserve">5 pack - 1 dose T-L syringes, No Needle</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis BPediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">ENGERIX B</t>
@@ -224,7 +230,7 @@
     <t xml:space="preserve">$21.37</t>
   </si>
   <si>
-    <t xml:space="preserve">Hepatitis B PediatricAdolescent</t>
+    <t xml:space="preserve">Hepatitis B  Pediatric/Adolescent</t>
   </si>
   <si>
     <t xml:space="preserve">RECOMBIVAX HB</t>
@@ -311,7 +317,7 @@
     <t xml:space="preserve">$48.31</t>
   </si>
   <si>
-    <t xml:space="preserve">Pneumococcal7-valent (Pediatric)</t>
+    <t xml:space="preserve">Pneumococcal 7-valent (Pediatric)</t>
   </si>
   <si>
     <t xml:space="preserve">Prevnar</t>
@@ -374,7 +380,7 @@
     <t xml:space="preserve">DECAVAC</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose syringes No Needle 10 pack - 1 dose vials </t>
+    <t xml:space="preserve">10 pack - 1 dose syringes No Needle </t>
   </si>
   <si>
     <t xml:space="preserve">$18.17</t>
@@ -395,27 +401,27 @@
     <t xml:space="preserve">BOOSTRIX</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose TL syringes, No Needle </t>
-  </si>
-  <si>
     <t xml:space="preserve">$28.54</t>
   </si>
   <si>
     <t xml:space="preserve">$37.55</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose TL syringes, No Needle </t>
+  </si>
+  <si>
     <t xml:space="preserve">ADACEL</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vials 5 pack - 1 dose BD Leur-Lok syringes </t>
-  </si>
-  <si>
     <t xml:space="preserve">$27.52</t>
   </si>
   <si>
     <t xml:space="preserve">$37.43</t>
   </si>
   <si>
+    <t xml:space="preserve">5 pack - 1 dose BD Leur-Lok syringes </t>
+  </si>
+  <si>
     <t xml:space="preserve">Varicella </t>
   </si>
   <si>
@@ -477,9 +483,6 @@
   </si>
   <si>
     <t xml:space="preserve">$21.345</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tetanus  DiphtheriaToxoids </t>
   </si>
   <si>
     <t xml:space="preserve">Tetanus  Diphtheria Toxoids
@@ -526,7 +529,7 @@
     <t xml:space="preserve">Zostavax</t>
   </si>
   <si>
-    <t xml:space="preserve">10 pack - 1 dose vial 1 pack-single dose 0.65mL vials </t>
+    <t xml:space="preserve">10 pack - 1 dose vial </t>
   </si>
   <si>
     <t xml:space="preserve">$105.943</t>
@@ -535,13 +538,16 @@
     <t xml:space="preserve">$153.93</t>
   </si>
   <si>
+    <t xml:space="preserve">1 pack-single dose 0.65mL vials </t>
+  </si>
+  <si>
     <t xml:space="preserve">$116.70</t>
   </si>
   <si>
     <t xml:space="preserve">$161.50</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 6 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone</t>
@@ -553,7 +559,7 @@
     <t xml:space="preserve">$9.72</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 6-35 months)</t>
+    <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
     <t xml:space="preserve">Fluzone
@@ -570,7 +576,7 @@
     <t xml:space="preserve">$13.16</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza (Age 36 months and older)</t>
+    <t xml:space="preserve">Influenza  (Age 36 months and older)</t>
   </si>
   <si>
     <t xml:space="preserve">$10.31</t>
@@ -606,7 +612,7 @@
     <t xml:space="preserve">$11.25</t>
   </si>
   <si>
-    <t xml:space="preserve">Influenza Live, Intranasal (Age 2-49 years)</t>
+    <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
     <t xml:space="preserve">FluMist
@@ -1001,7 +1007,7 @@
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E7" t="s">
         <v>27</v>
@@ -1021,10 +1027,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -1033,10 +1039,10 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G8" s="1">
         <v>40268</v>
@@ -1050,10 +1056,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -1062,10 +1068,10 @@
         <v>22</v>
       </c>
       <c r="E9" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="G9" s="1">
         <v>40268</v>
@@ -1079,22 +1085,22 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="G10" s="1">
         <v>40268</v>
@@ -1108,22 +1114,22 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
       <c r="B11" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E11" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="F11" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="G11" s="1">
         <v>40268</v>
@@ -1137,22 +1143,22 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B12" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G12" s="1">
         <v>40268</v>
@@ -1166,22 +1172,22 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
       </c>
       <c r="D13" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
         <v>46</v>
       </c>
-      <c r="E13" t="s">
-        <v>44</v>
-      </c>
       <c r="F13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="G13" s="1">
         <v>40268</v>
@@ -1195,10 +1201,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -1207,16 +1213,16 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="F14" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="G14" s="1">
         <v>40268</v>
       </c>
       <c r="H14" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I14" t="s">
         <v>11</v>
@@ -1224,10 +1230,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B15" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
@@ -1236,16 +1242,16 @@
         <v>12</v>
       </c>
       <c r="E15" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="F15" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="G15" s="1">
         <v>40268</v>
       </c>
       <c r="H15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I15" t="s">
         <v>11</v>
@@ -1253,22 +1259,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>57</v>
+        <v>26</v>
       </c>
       <c r="E16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G16" s="1">
         <v>40268</v>
@@ -1282,22 +1288,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G17" s="1">
         <v>40268</v>
@@ -1311,10 +1317,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B18" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -1323,10 +1329,10 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F18" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G18" s="1">
         <v>40268</v>
@@ -1340,22 +1346,22 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
+        <v>66</v>
+      </c>
+      <c r="E19" t="s">
         <v>64</v>
       </c>
-      <c r="E19" t="s">
-        <v>62</v>
-      </c>
       <c r="F19" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G19" s="1">
         <v>40268</v>
@@ -1369,10 +1375,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
@@ -1381,10 +1387,10 @@
         <v>12</v>
       </c>
       <c r="E20" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F20" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G20" s="1">
         <v>40268</v>
@@ -1398,22 +1404,22 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
+        <v>68</v>
+      </c>
+      <c r="C21" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" t="s">
         <v>66</v>
       </c>
-      <c r="C21" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" t="s">
-        <v>64</v>
-      </c>
       <c r="E21" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="G21" s="1">
         <v>40268</v>
@@ -1427,10 +1433,10 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="C22" t="s">
         <v>11</v>
@@ -1439,16 +1445,16 @@
         <v>12</v>
       </c>
       <c r="E22" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F22" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="G22" s="1">
         <v>40268</v>
       </c>
       <c r="H22" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I22" t="s">
         <v>11</v>
@@ -1456,10 +1462,10 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B23" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="C23" t="s">
         <v>11</v>
@@ -1468,16 +1474,16 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F23" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="G23" s="1">
         <v>40268</v>
       </c>
       <c r="H23" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I23" t="s">
         <v>11</v>
@@ -1485,22 +1491,22 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B24" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C24" t="s">
         <v>11</v>
       </c>
       <c r="D24" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E24" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="G24" s="1">
         <v>40268</v>
@@ -1514,10 +1520,10 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B25" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="C25" t="s">
         <v>11</v>
@@ -1526,10 +1532,10 @@
         <v>12</v>
       </c>
       <c r="E25" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F25" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G25" s="1">
         <v>40268</v>
@@ -1543,10 +1549,10 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C26" t="s">
         <v>11</v>
@@ -1555,16 +1561,16 @@
         <v>12</v>
       </c>
       <c r="E26" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="F26" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G26" s="1">
         <v>40268</v>
       </c>
       <c r="H26" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I26" t="s">
         <v>11</v>
@@ -1572,10 +1578,10 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B27" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C27" t="s">
         <v>11</v>
@@ -1584,16 +1590,16 @@
         <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F27" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="G27" s="1">
         <v>40268</v>
       </c>
       <c r="H27" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I27" t="s">
         <v>11</v>
@@ -1601,22 +1607,22 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B28" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C28" t="s">
         <v>11</v>
       </c>
       <c r="D28" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E28" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="G28" s="1">
         <v>40268</v>
@@ -1630,10 +1636,10 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B29" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C29" t="s">
         <v>11</v>
@@ -1642,16 +1648,16 @@
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="F29" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G29" s="1">
         <v>40268</v>
       </c>
       <c r="H29" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I29" t="s">
         <v>11</v>
@@ -1659,28 +1665,28 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B30" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C30" t="s">
         <v>11</v>
       </c>
       <c r="D30" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E30" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F30" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G30" s="1">
         <v>40268</v>
       </c>
       <c r="H30" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="I30" t="s">
         <v>11</v>
@@ -1688,10 +1694,10 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B31" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C31" t="s">
         <v>11</v>
@@ -1700,16 +1706,16 @@
         <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="F31" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G31" s="1">
         <v>40268</v>
       </c>
       <c r="H31" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I31" t="s">
         <v>11</v>
@@ -1717,28 +1723,28 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B32" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="C32" t="s">
         <v>11</v>
       </c>
       <c r="D32" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E32" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F32" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="G32" s="1">
         <v>40268</v>
       </c>
       <c r="H32" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I32" t="s">
         <v>11</v>
@@ -1746,10 +1752,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B33" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C33" t="s">
         <v>11</v>
@@ -1758,10 +1764,10 @@
         <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="F33" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="G33" s="1">
         <v>40268</v>
@@ -1775,22 +1781,22 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B34" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C34" t="s">
         <v>11</v>
       </c>
       <c r="D34" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="E34" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F34" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G34" s="1">
         <v>40268</v>
@@ -1804,22 +1810,22 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B35" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C35" t="s">
         <v>11</v>
       </c>
       <c r="D35" t="s">
-        <v>119</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="F35" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="G35" s="1">
         <v>40268</v>
@@ -1833,10 +1839,10 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="C36" t="s">
         <v>11</v>
@@ -1845,7 +1851,7 @@
         <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F36" t="s">
         <v>11</v>
@@ -1854,7 +1860,7 @@
         <v>40268</v>
       </c>
       <c r="H36" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I36" t="s">
         <v>11</v>
@@ -1862,22 +1868,22 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B37" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C37" t="s">
         <v>11</v>
       </c>
       <c r="D37" t="s">
-        <v>126</v>
+        <v>26</v>
       </c>
       <c r="E37" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F37" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G37" s="1">
         <v>40268</v>
@@ -1891,22 +1897,22 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B38" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C38" t="s">
         <v>11</v>
       </c>
       <c r="D38" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E38" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F38" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G38" s="1">
         <v>40268</v>
@@ -1920,22 +1926,22 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B39" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C39" t="s">
         <v>11</v>
       </c>
       <c r="D39" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E39" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F39" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G39" s="1">
         <v>40268</v>
@@ -1949,22 +1955,22 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B40" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="C40" t="s">
         <v>11</v>
       </c>
       <c r="D40" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E40" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F40" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G40" s="1">
         <v>40268</v>
@@ -1978,10 +1984,10 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="B41" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C41" t="s">
         <v>11</v>
@@ -1990,16 +1996,16 @@
         <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="F41" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G41" s="1">
         <v>40268</v>
       </c>
       <c r="H41" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I41" t="s">
         <v>11</v>
@@ -2052,10 +2058,10 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B2" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
@@ -2064,10 +2070,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G2" s="1">
         <v>40359</v>
@@ -2081,22 +2087,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E3" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="G3" s="1">
         <v>40359</v>
@@ -2110,10 +2116,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B4" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2122,10 +2128,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="F4" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G4" s="1">
         <v>40359</v>
@@ -2139,22 +2145,22 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
+        <v>66</v>
+      </c>
+      <c r="E5" t="s">
         <v>64</v>
       </c>
-      <c r="E5" t="s">
-        <v>62</v>
-      </c>
       <c r="F5" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="G5" s="1">
         <v>40359</v>
@@ -2168,10 +2174,10 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B6" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
@@ -2180,10 +2186,10 @@
         <v>12</v>
       </c>
       <c r="E6" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F6" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G6" s="1">
         <v>40359</v>
@@ -2197,22 +2203,22 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E7" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="F7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G7" s="1">
         <v>40359</v>
@@ -2226,10 +2232,10 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
@@ -2238,16 +2244,16 @@
         <v>12</v>
       </c>
       <c r="E8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" s="1">
         <v>40359</v>
       </c>
       <c r="H8" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2255,10 +2261,10 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B9" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
@@ -2267,16 +2273,16 @@
         <v>12</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="F9" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G9" s="1">
         <v>40359</v>
       </c>
       <c r="H9" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -2284,28 +2290,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B10" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="G10" s="1">
         <v>40359</v>
       </c>
       <c r="H10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>
@@ -2313,28 +2319,28 @@
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="C11" t="s">
         <v>11</v>
       </c>
       <c r="D11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="G11" s="1">
         <v>40359</v>
       </c>
       <c r="H11" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I11" t="s">
         <v>11</v>
@@ -2342,10 +2348,10 @@
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>154</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
         <v>11</v>
@@ -2357,13 +2363,13 @@
         <v>13</v>
       </c>
       <c r="F12" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G12" s="1">
         <v>40359</v>
       </c>
       <c r="H12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="I12" t="s">
         <v>11</v>
@@ -2371,10 +2377,10 @@
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B13" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C13" t="s">
         <v>11</v>
@@ -2392,7 +2398,7 @@
         <v>40359</v>
       </c>
       <c r="H13" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="I13" t="s">
         <v>11</v>
@@ -2400,10 +2406,10 @@
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B14" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C14" t="s">
         <v>11</v>
@@ -2412,10 +2418,10 @@
         <v>12</v>
       </c>
       <c r="E14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F14" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G14" s="1">
         <v>40359</v>
@@ -2429,22 +2435,22 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B15" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="C15" t="s">
         <v>11</v>
       </c>
       <c r="D15" t="s">
+        <v>162</v>
+      </c>
+      <c r="E15" t="s">
         <v>161</v>
       </c>
-      <c r="E15" t="s">
-        <v>160</v>
-      </c>
       <c r="F15" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G15" s="1">
         <v>40359</v>
@@ -2458,22 +2464,22 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B16" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C16" t="s">
         <v>11</v>
       </c>
       <c r="D16" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E16" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F16" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G16" s="1">
         <v>40359</v>
@@ -2487,22 +2493,22 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B17" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C17" t="s">
         <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E17" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F17" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="G17" s="1">
         <v>40359</v>
@@ -2516,10 +2522,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B18" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C18" t="s">
         <v>11</v>
@@ -2528,16 +2534,16 @@
         <v>12</v>
       </c>
       <c r="E18" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="F18" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G18" s="1">
         <v>40359</v>
       </c>
       <c r="H18" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I18" t="s">
         <v>11</v>
@@ -2545,28 +2551,28 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C19" t="s">
         <v>11</v>
       </c>
       <c r="D19" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="E19" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F19" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G19" s="1">
         <v>40359</v>
       </c>
       <c r="H19" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I19" t="s">
         <v>11</v>
@@ -2574,28 +2580,28 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B20" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C20" t="s">
         <v>11</v>
       </c>
       <c r="D20" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="E20" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G20" s="1">
         <v>40359</v>
       </c>
       <c r="H20" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="I20" t="s">
         <v>11</v>
@@ -2648,22 +2654,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2677,22 +2683,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B3" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2706,22 +2712,22 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B4" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
       </c>
       <c r="D4" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E4" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2735,10 +2741,10 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="B5" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
@@ -2747,10 +2753,10 @@
         <v>12</v>
       </c>
       <c r="E5" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="F5" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
@@ -2764,28 +2770,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B6" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="F6" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -2793,28 +2799,28 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="F7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G7" s="1">
         <v>40237</v>
       </c>
       <c r="H7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I7" t="s">
         <v>11</v>
@@ -2822,28 +2828,28 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="B8" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="E8" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="F8" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
       </c>
       <c r="H8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
         <v>11</v>
@@ -2896,22 +2902,22 @@
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B2" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C2" t="s">
         <v>11</v>
       </c>
       <c r="D2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="F2" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="G2" s="1">
         <v>40237</v>
@@ -2925,22 +2931,22 @@
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B3" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
       </c>
       <c r="D3" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G3" s="1">
         <v>40237</v>
@@ -2954,10 +2960,10 @@
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C4" t="s">
         <v>11</v>
@@ -2966,10 +2972,10 @@
         <v>12</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F4" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="G4" s="1">
         <v>40237</v>
@@ -2983,28 +2989,28 @@
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B5" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="C5" t="s">
         <v>11</v>
       </c>
       <c r="D5" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="G5" s="1">
         <v>40237</v>
       </c>
       <c r="H5" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I5" t="s">
         <v>11</v>
@@ -3012,28 +3018,28 @@
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B6" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="C6" t="s">
         <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E6" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="F6" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="G6" s="1">
         <v>40237</v>
       </c>
       <c r="H6" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="I6" t="s">
         <v>11</v>
@@ -3041,19 +3047,19 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="C7" t="s">
         <v>11</v>
       </c>
       <c r="D7" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="E7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F7" t="s">
         <v>13</v>
@@ -3070,22 +3076,22 @@
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B8" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="C8" t="s">
         <v>11</v>
       </c>
       <c r="D8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E8" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="F8" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="G8" s="1">
         <v>40237</v>
@@ -3099,28 +3105,28 @@
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="C9" t="s">
         <v>11</v>
       </c>
       <c r="D9" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="E9" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="F9" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="G9" s="1">
         <v>40237</v>
       </c>
       <c r="H9" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I9" t="s">
         <v>11</v>
@@ -3128,28 +3134,28 @@
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B10" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C10" t="s">
         <v>11</v>
       </c>
       <c r="D10" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="F10" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="G10" s="1">
         <v>40237</v>
       </c>
       <c r="H10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="I10" t="s">
         <v>11</v>

--- a/Files/Vaccine_January 28, 2010.xlsx
+++ b/Files/Vaccine_January 28, 2010.xlsx
@@ -485,9 +485,7 @@
     <t xml:space="preserve">$21.345</t>
   </si>
   <si>
-    <t xml:space="preserve">Tetanus  Diphtheria Toxoids
-Adsorbed for Adults
-No Preservative</t>
+    <t xml:space="preserve">Tetanus  Diphtheria Toxoids Adsorbed for Adults No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">$18.23</t>
@@ -562,9 +560,7 @@
     <t xml:space="preserve">Influenza  (Age 6-35 months)</t>
   </si>
   <si>
-    <t xml:space="preserve">Fluzone
-Pediatric dose
-No Preservative</t>
+    <t xml:space="preserve">Fluzone Pediatric dose No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose syringes</t>
@@ -615,8 +611,7 @@
     <t xml:space="preserve">Influenza  Live, Intranasal (Age 2-49 years)</t>
   </si>
   <si>
-    <t xml:space="preserve">FluMist
-No Preservative</t>
+    <t xml:space="preserve">FluMist No Preservative</t>
   </si>
   <si>
     <t xml:space="preserve">10 pack - 1 dose sprayers</t>
@@ -682,8 +677,7 @@
     <t xml:space="preserve">$8.00</t>
   </si>
   <si>
-    <t xml:space="preserve">CSL
-Biotherapies</t>
+    <t xml:space="preserve">CSL Biotherapies</t>
   </si>
   <si>
     <t xml:space="preserve">Afluria</t>
